--- a/Tips.xlsx
+++ b/Tips.xlsx
@@ -579,19 +579,19 @@
         <v>3.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="G4" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>10.83018867924528</v>
+        <v>11.83018867924529</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.777777777777779</v>
+        <v>-6.777777777777779</v>
       </c>
       <c r="K4" t="n">
         <v>-8.571428571428569</v>
